--- a/出库/枕头的出库(更新4.16).xlsx
+++ b/出库/枕头的出库(更新4.16).xlsx
@@ -1006,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5076,13 +5076,13 @@
         <v>13</v>
       </c>
       <c r="C107" s="19">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D107" s="19">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E107" s="19">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F107" s="19">
         <v>32</v>
@@ -5094,10 +5094,10 @@
         <v>10</v>
       </c>
       <c r="I107" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J107" s="19">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K107" s="19">
         <v>54</v>
@@ -5112,15 +5112,15 @@
       </c>
       <c r="C108" s="22">
         <f>C106-C107</f>
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D108" s="22">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="E108" s="22">
         <f t="shared" si="49"/>
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F108" s="22">
         <f t="shared" si="49"/>
@@ -5136,11 +5136,11 @@
       </c>
       <c r="I108" s="22">
         <f t="shared" si="49"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J108" s="22">
         <f t="shared" si="49"/>
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K108" s="22">
         <f>K106-K107+1</f>
@@ -5150,9 +5150,10 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>